--- a/seagrass/final_spreadsheets/seagrass_shoots_data_entry_spreadsheet_marinegeo.xlsx
+++ b/seagrass/final_spreadsheets/seagrass_shoots_data_entry_spreadsheet_marinegeo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,6 +12,19 @@
     <sheet name="sheath and epibiont data" sheetId="5" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -284,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="9">
     <font>
@@ -481,6 +494,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -838,10 +852,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="true" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1412,10 +1426,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -1478,10 +1492,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -1552,10 +1566,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
